--- a/Jogos_do_Dia/2023-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O3" t="n">
         <v>1.39</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G4" t="n">
-        <v>12.45</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>24.89</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
         <v>1.01</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13.44</v>
+        <v>12.6</v>
       </c>
       <c r="G5" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
         <v>1.02</v>
@@ -1034,10 +1034,10 @@
         <v>1.14</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF5" t="n">
         <v>1.55</v>

--- a/Jogos_do_Dia/2023-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>1.41</v>
       </c>
       <c r="V2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="X2" t="n">
         <v>1.59</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
         <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.39</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
         <v>1.01</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
         <v>1.18</v>
